--- a/backend/src/main/resources/static/data đề test.xlsx
+++ b/backend/src/main/resources/static/data đề test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="182">
   <si>
     <t>CÂU HỎI</t>
   </si>
@@ -46,229 +46,229 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Nước nào có diện tích lớn nhất châu Á?</t>
+    <t>Đàn bầu còn có tên gọi nào khác?</t>
   </si>
   <si>
-    <t>Trung Quốc</t>
+    <t>Độc huyền cầm</t>
   </si>
   <si>
     <t>GÓI 1</t>
   </si>
   <si>
-    <t>Hiến pháp đầu tiên của nước Việt Nam Dân chủ Cộng hòa được thông qua từ năm nào?</t>
+    <t>Khi đốt cháy hoàn toàn xicloankan. người ta thu được số mol H2O ... số mol CO2.</t>
   </si>
   <si>
-    <t>1946</t>
+    <t>bằng</t>
   </si>
   <si>
-    <t>Môn bóng bàn có nguồn gốc từ nước nào?</t>
+    <t>Trong các tia sau: tia anpha, tia beta -, tia beta +, tia gamma, tia nào là dòng các hạt không mang điện tích?</t>
   </si>
   <si>
-    <t>Anh</t>
+    <t>Tia gamma</t>
   </si>
   <si>
-    <t>Khi ở một mình trên đảo hoang, loài động vật nào được Robinson Crusoe nuôi và sử dụng nhiều nhất?</t>
+    <t>Tên tiếng Việt của pianô là ...</t>
   </si>
   <si>
-    <t>Dê</t>
+    <t>đàn dương cầm</t>
   </si>
   <si>
-    <t>... là loại đèn bằng thủy tinh có bấc, dùng để đun trong phòng thí nghiệm hóa học.</t>
+    <t>Cầu thủ nào thi đấu nhiều nhất cho đội tuyển quốc gia Việt Nam?</t>
   </si>
   <si>
-    <t>Đèn cồn</t>
+    <t>Lê Công Vinh</t>
   </si>
   <si>
-    <t>What is the room at home called where you park your car or motorbike?</t>
+    <t>Hai kim loại nào phổ biến nhất trong vỏ Trái Đất?</t>
   </si>
   <si>
-    <t>Garage</t>
+    <t>Sắt, nhôm</t>
   </si>
   <si>
-    <t>Khi một chùm ánh sáng trắng truyền qua một lăng kính thì ánh sáng màu gì bị lệch về đáy ít nhất?</t>
+    <t>Độ mặn của nước biển thấp nhất ở đới khí hậu nào?</t>
   </si>
   <si>
-    <t>Đỏ</t>
+    <t>Hàn đới</t>
   </si>
   <si>
-    <t>The Masters là giải thi đấu của môn thể thao nào?</t>
+    <t>Người Ai Cập cổ coi thần nào là đấng sinh thành của các pharaon?</t>
   </si>
   <si>
-    <t>Golf</t>
+    <t>Thần Mặt Trời</t>
   </si>
   <si>
-    <t>Bắc Cực là điểm xuất phát của tất cả các vĩ tuyến trên Trái Đất, đúng hay sai?</t>
+    <t>Cây cầu quay đầu tiên và duy nhất của Việt Nam hiện nay nằm tại thành phố nào ở miền Trung?</t>
   </si>
   <si>
-    <t>Sai</t>
+    <t>Đà Nẵng</t>
   </si>
   <si>
     <t>GÓI 2</t>
   </si>
   <si>
-    <t>Một cuộn cảm thuần có tác dụng cản trở đối với dòng điện ..., không có tác dụng cản trở dòng điện ...</t>
+    <t>Cây ca cao có nguồn gốc từ châu lục nào?</t>
   </si>
   <si>
-    <t>xoay chiều, một chiều</t>
+    <t>Châu Mỹ</t>
   </si>
   <si>
-    <t>What name is given to a film in which actors sing and dance?</t>
+    <t>Kênh đào Panama nối liền Đại Tây Dương với ...</t>
   </si>
   <si>
-    <t>Musical</t>
+    <t>Thái Bình Dương</t>
   </si>
   <si>
-    <t>... là người chỉ huy dàn nhạc giao hưởng.</t>
+    <t>Giải thưởng nào thường được trao trước khi diễn ra lễ trao giải Oscar, dành cho những phim, diễn viên dở nhất trong năm?</t>
   </si>
   <si>
-    <t>Nhạc trưởng</t>
+    <t>Mâm xôi vàng</t>
   </si>
   <si>
-    <t>Quá trình biến đổi hóa học của các chất hữu cơ dưới tác dụng của các enzim gọi là gì?</t>
+    <t>Nhiệt độ cao quanh năm, biên độ nhiệt trên 6°C, lượng mưa lớn là nét đặc trưng của khí hậu nào?</t>
   </si>
   <si>
-    <t>Lên men</t>
+    <t>Nhiệt đới</t>
   </si>
   <si>
-    <t>Trong "Truyện cổ tích về loài người" của Xuân Quỳnh, cái gì sinh ra trước nhất?[1]</t>
+    <t>... còn được mệnh danh là Đảo Ngọc, là hòn đảo lớn nhất của Việt Nam, cũng là đảo lớn nhất trong quần thể 22 đảo tại đây, nằm trong vịnh Thái Lan.</t>
   </si>
   <si>
-    <t>Trẻ em</t>
+    <t>Phú Quốc</t>
   </si>
   <si>
-    <t>Năm 1400 đánh dấu sự thành lập của triều đại nào trong lịch sử nước ta?</t>
+    <t>Người ... là dân tộc chiếm khoảng 90% dân số tại Campuchia.</t>
   </si>
   <si>
-    <t>Hồ</t>
+    <t>Khmer</t>
   </si>
   <si>
-    <t>Nhiệt độ trung bình năm ... dần từ Nam ra Bắc.</t>
+    <t>Trong dịch vụ chuyển phát nhanh "EMS" thì chữ M dùng để viết tắt cho từ tiếng Anh nào?</t>
   </si>
   <si>
-    <t>giảm</t>
+    <t>Mail</t>
   </si>
   <si>
-    <t>Quá trình oxi hóa sinh học của tế bào sống được gọi là ....</t>
+    <t>Tơ của nhện được tạo bởi ... và axit amin.</t>
   </si>
   <si>
-    <t>hô hấp</t>
+    <t>protein</t>
   </si>
   <si>
-    <t>Giữa Bắc Cực và Nam Cực, nơi nào có khí hậu lạnh hơn?</t>
+    <t>Bộ môn thể thao nào đã xuất sắc mang về tấm huy chương vàng duy nhất cho đoàn thể thao Việt Nam tại Olympic Rio 2016?</t>
   </si>
   <si>
-    <t>Nam Cực</t>
+    <t>Bắn súng</t>
   </si>
   <si>
-    <t>Phép đặt tương ứng mỗi điểm M với điểm M' đối xứng với M qua đường thẳng d gọi là phép ...</t>
+    <t>... là hình thu nhỏ 1 phần (toàn bộ) Trái Đất lên mặt phẳng, trên cơ sở toán học nhất định nhằm thể hiện các đối tượng địa lí tự nhiên, KTXH.</t>
   </si>
   <si>
-    <t>đối xứng trục</t>
+    <t>Bản đồ</t>
   </si>
   <si>
-    <t>Trong tam giác vuông, mỗi cạnh góc vuông bằng cạnh góc vuông kia nhân với ... góc đối hoặc nhân với ... góc kề.</t>
+    <t>Nhạc khí thổi của nhiều dân tộc ở nước ta, làm bằng các ống tre, nứa ghép được gọi là gì?</t>
   </si>
   <si>
-    <t>tan, cotan</t>
+    <t>Khèn</t>
   </si>
   <si>
-    <t>Truyện Kiều là bức tranh hiện thực về một xã hội nửa cuối thế kỉ ... đầu thế kỉ ... - cuối Lê đầu Nguyễn.</t>
+    <t>Nghệ sỹ Đặng Thái Sơn đã đoạt giải nhất trong cuộc thi Frederick Chopin vào tháng 10 năm 1980. Ông đã chơi loại nhạc cụ gì?</t>
   </si>
   <si>
-    <t>18, 19</t>
+    <t>Piano</t>
   </si>
   <si>
     <t>GÓI 3</t>
   </si>
   <si>
-    <t>Trong bài hát Cháu yêu bà của nhạc sĩ Xuân Giao, mái tóc bạc của người bà được so sánh với hình ảnh gì?</t>
+    <t>Vùng gió xoáy có áp suất khí quyển ở gần tâm khoảng dưới 1.000mbar, sức gió từ cấp 7 trở xuống được gọi là gì?</t>
   </si>
   <si>
-    <t>Mây</t>
+    <t>Áp thấp nhiệt đới</t>
   </si>
   <si>
-    <t>What does a power station produce?</t>
+    <t>Quân dân nhà Trần đã ... lần đánh thắng đội quân Mông Cổ do Thoát Hoan chỉ huy.</t>
   </si>
   <si>
-    <t>Electricity</t>
+    <t>2</t>
   </si>
   <si>
-    <t>Địa bàn chủ yếu của văn hóa Óc Eo là vùng châu thổ sông ...</t>
+    <t>Ngành dịch thuật có 2 thể loại là biên dịch và thể loại nào nữa?</t>
   </si>
   <si>
-    <t>Cửu Long</t>
+    <t>Phiên dịch</t>
   </si>
   <si>
-    <t>Khi nhiệt độ tăng, độ dẫn điện của kim loại tăng hay giảm?</t>
+    <t>Các hệ sinh thái trong sinh quyển thuộc 3 nhóm là: trên cạn, nước ngọt và nước ...</t>
   </si>
   <si>
-    <t>Giảm</t>
+    <t>mặn</t>
   </si>
   <si>
-    <t>Khối A1 trong kì thi Đại học năm 2014 có những môn nào thi bằng hình thức trắc nghiệm?</t>
+    <t>Nhân vật chính trong câu chuyện cổ tích "Sự tích hòn Vọng Phu" tên là gì?</t>
   </si>
   <si>
-    <t>Vật lý, tiếng Anh</t>
+    <t>Tô Thị</t>
   </si>
   <si>
-    <t>Loại mạch máu nào dẫn máu từ tim đến các cơ quan khác trong cơ thể?</t>
+    <t>Tiếng chuông trong bài hát Làng tôi của nhạc sĩ Văn Cao xuất phát từ nơi nào?</t>
   </si>
   <si>
-    <t>Động mạch</t>
+    <t>Nhà thờ</t>
   </si>
   <si>
-    <t>Kim loại nào có nhiệt độ nóng chảy thấp nhất?</t>
+    <t>Trong số các hành tinh xoay quanh Mặt Trời, hành tinh nào lớn nhất ?</t>
   </si>
   <si>
-    <t>Thủy ngân</t>
+    <t>Mộc tinh</t>
   </si>
   <si>
-    <t>Hệ hai lực song song, ngược chiều, có độ lớn bằng nhau và cùng tác dụng vào một vật được gọi là gì?</t>
+    <t>Phong trào nào diễn ra vào đầu thập niên 30 của thế kỉ XX, được coi là "cuộc diễn tập đầu tiên cho Cách mạng Tháng 8"?</t>
   </si>
   <si>
-    <t>Ngẫu lực</t>
+    <t>Xô viết Nghệ - Tĩnh</t>
   </si>
   <si>
-    <t>Hai câu thơ "Thuyền về có nhớ bến chăng/ Bến thì một dạ khăng khăng đợi thuyền" sử dụng biện pháp tu từ gì?</t>
+    <t>Thành phố nào ở châu Âu là thành phố đầu tiên có vinh dự được 3 lần đăng cai tổ chức Thế vận hội Olympic mùa hè?</t>
   </si>
   <si>
-    <t>Ẩn dụ</t>
+    <t>London</t>
   </si>
   <si>
-    <t>Thành phần nào trong máu giảm dưới mức bình thường là nguyên nhân gây ra chứng hạ đường huyết?</t>
+    <t>... là 1 trong những nhà soạn nhạc nổi tiếng nhất trong thể loại nhạc cổ điển châu Âu, 3 tuổi đã nghe và hiểu âm nhạc, 6 tuổi đã viết nhạc hòa tấu.</t>
   </si>
   <si>
-    <t>Đường</t>
+    <t>Mozart</t>
   </si>
   <si>
-    <t>Chỉ có bazơ của kim loại ... và kim loại ... là tác dụng được với oxit axit.</t>
+    <t>"Hành lộ nan","Tĩnh dạ tư", "Thái liên khúc" là những bài thơ của tác giả nào người Trung Quốc?</t>
   </si>
   <si>
-    <t>kiềm, kiềm thổ</t>
+    <t>Lý Bạch</t>
   </si>
   <si>
-    <t>Trong bóng đá, vòng tứ kết có bao nhiêu đội thi đấu?</t>
+    <t>Loại hình nghệ thuật Opera ra đời ở đất nước nào vào thế kỷ XVII?</t>
   </si>
   <si>
-    <t>8</t>
+    <t>Ý</t>
   </si>
   <si>
-    <t>Khu vực rừng nào có diện tích lớn nhất trên thế giới?</t>
+    <t>Với dạ dày có ... ngăn, bò có thể tiêu hóa những loại cỏ khó tiêu nhất.</t>
   </si>
   <si>
-    <t>Amazon</t>
+    <t>4</t>
   </si>
   <si>
-    <t>Khi không có kích thích của thức ăn, gan có tiết ra dịch mật không?</t>
+    <t>Ở môn bóng rổ trong nhà, mỗi đội có bao nhiêu người trên sân?</t>
   </si>
   <si>
-    <t>Có</t>
+    <t>5</t>
   </si>
   <si>
-    <t>Ai được xem như "Linh hồn của Quốc tế thứ nhất"?</t>
+    <t>Người ta dùng axit gì để khắc lên thuỷ tinh?</t>
   </si>
   <si>
-    <t>Karl Marx</t>
+    <t>HF</t>
   </si>
   <si>
     <t>LƯU Ý</t>
@@ -283,305 +283,351 @@
     <t>KHÔNG THAY ĐỔI CẤU TRÚC CỦA FILE</t>
   </si>
   <si>
-    <t>Bức tranh “Bữa ăn tối cuối cùng” của danh hoạ Leonardo Da Vinci vẽ Chúa ngồi ăn cùng bao nhiêu môn đồ?</t>
+    <t>Người ta tả Phượng Hoàng với các đặc điểm là loài vật có đầu gà, hàm én, cổ rắn, lưng rùa, đuôi cá và cánh khổng tước với 5 màu và cao 6 thước.</t>
   </si>
   <si>
-    <t>12</t>
+    <t>PHƯỢNG HOÀNG</t>
   </si>
   <si>
-    <t>Nhà thờ đá Phát Diệm nằm ở tỉnh nào của nước ta?</t>
+    <t>Bộ phim "Học trò thủy thần" của đạo diễn - NSND Khánh Dư được xây dựng trên nội dung câu chuyện cổ tích "Sự tích ...". Trong dấu ... là gì?</t>
   </si>
   <si>
-    <t>Ninh Bình</t>
+    <t>ĐẦM MỰC</t>
   </si>
   <si>
-    <t>Số La Mã CMLXVIII là số bao nhiêu trong hệ thập phân?</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF202122"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Cây cầu nào là cây </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF202122"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>cầu</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF202122"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> lớn nhất trong dự án 7 cây cầu của </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF202122"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Hà Nội</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF202122"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> bắc qua </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF202122"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>sông Hồng</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF202122"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> ?</t>
+    </r>
   </si>
   <si>
-    <t>968</t>
+    <t>THANH TRÌ</t>
   </si>
   <si>
-    <t>Sông Cầu, sông Thương, sông Lục Nam nằm trong hệ thống sông nào?</t>
+    <t>Đây là phân số lớn hơn 1 và bé hơn 2, có mẫu là số nguyên tố nhỏ nhất có 2 chữ số và tử số là 1 số tròn chục.</t>
   </si>
   <si>
-    <t>Thái Bình</t>
+    <t>20/11</t>
   </si>
   <si>
-    <t>Điền từ vào chỗ trống của câu thành ngữ sau: “Chắc như … đóng cột”?</t>
+    <t>Ở Hà Nội, di tích văn hóa này được xây dựng từ năm 1070, dưới thời vua Lý Thánh Tông.</t>
   </si>
   <si>
-    <t>Đinh</t>
+    <t>VĂN MIẾU</t>
   </si>
   <si>
     <t>CHƯỚNG NGẠI VẬT</t>
   </si>
   <si>
-    <t>ĐINH BỘ LĨNH</t>
+    <t>CHU VĂN AN</t>
   </si>
   <si>
     <t>cnv.jpg</t>
   </si>
   <si>
-    <t>Tìm hình thích hợp điền vào dấu ?</t>
+    <t>Điền số thích hợp vào dấu ?</t>
   </si>
   <si>
-    <t>C</t>
+    <t>27</t>
   </si>
   <si>
     <t>tt1.jpg</t>
   </si>
   <si>
-    <t>Sắp xếp các cây cầu với tên các tỉnh thành trực thuộc.</t>
+    <t>Tìm số khác quy luật ?</t>
   </si>
   <si>
-    <t>CDAB</t>
+    <t>A</t>
   </si>
   <si>
     <t>tt2.jpg</t>
   </si>
   <si>
-    <t>Đây là ai ?</t>
+    <t>Đây là gì ?</t>
   </si>
   <si>
-    <t>Mẹ</t>
+    <t>Mật ong</t>
   </si>
   <si>
     <t>tt3.mp4</t>
   </si>
   <si>
-    <t>Đây là số nào ?</t>
+    <t>Đây là môn thể thao nào ?</t>
   </si>
   <si>
-    <t>6</t>
+    <t>Boxing</t>
   </si>
   <si>
     <t>tt4.mp4</t>
   </si>
   <si>
-    <t>Năm Mậu Thìn 248, Lệ Hải bà vương đã đánh tan quân Ngô tại núi Nưa, Triệu Sơn, Thanh Hóa làm quân giặc khiếp đảm tôn phục với câu cửa miệng "Hoành qua đường hổ dị. Đối diện bà Vương nan" (Múa giáo chống hổ dễ. Đối mặt vua bà khó). Hãy cho biết Lệ Hải bà vương là ai?</t>
+    <t>Ngay sau khi ra đời (22/12/1944), đội Việt Nam tuyên truyền giải phóng quân đã đánh thắng hai trận Phay Khắt và Nà Ngần trên địa bàn tỉnh nào?</t>
   </si>
   <si>
-    <t>Triệu Thị Trinh</t>
+    <t>Cao Bằng</t>
   </si>
   <si>
-    <t>Người xưa có câu: "Thứ nhất Cổ Bi. Thứ nhì ... Thứ ba Cổ Pháp" để nói về "Tam Cổ", tức ba vùng đất địa linh nhân kiệt trong lịch sử. Hãy cho biết trong dấu ba chấm là địa danh nào?</t>
+    <t>Mẹ Suốt trong thơ Tố Hữu đã "Một tay lái chiếc đò ngang" qua dòng sông nào?</t>
   </si>
   <si>
-    <t>Cổ Loa</t>
+    <t>Sông Nhật Lệ</t>
   </si>
   <si>
-    <t>Logo của Tổ chức Văn hóa, Khoa học và Giáo dục Liên hợp quốc (UNESCO) được lấy ý tưởng từ công trình nào?</t>
+    <t>"Tiếng nói là thứ của cải vô cùng lâu đời và vô cùng quý báu của dân tộc. Chúng ta phải giữ gìn nó, quý trọng nó ..." là câu nói của ai?</t>
   </si>
   <si>
-    <t>đền Patheon</t>
+    <t>Bác Hồ</t>
   </si>
   <si>
-    <t>Ai là người đã sáng lập ra trường Đông Kinh Nghĩa Thục năm 1907?</t>
+    <t>Protein được biến đổi trong quá trình tiêu hoá đến giai đoạn cuối cùng để cơ thể có thể hấp thụ được là chất gì?</t>
   </si>
   <si>
-    <t>Lương Văn Can</t>
+    <t>Acid amin / Amino acid</t>
   </si>
   <si>
-    <t>Hai thôn nào là hình ảnh hoán dụ cho con trai và con gái trong bài thơ "Tương tư" của Nguyễn Bính?</t>
+    <t>Đảo Calimantan thuộc quyền lãnh thổ của 3 quốc gia, đó là 3 quốc gia nào ?</t>
   </si>
   <si>
-    <t>Thôn Đoài và thôn Đông</t>
+    <t>Indonesia, Malaysia, Brunei</t>
   </si>
   <si>
-    <t>Nhà văn nào từng được Mao Trạch Đông nhận xét là "bậc vĩ nhân của cách mạng văn hóa Trung Quốc" và "là thánh nhân của vô sản cũng như Khổng Tử là thánh nhân của phong kiến"?</t>
+    <t>Tùy theo tỉ lệ khối lượng các nguyên tố có trong cơ thể sống mà các nhà khoa học chia các nguyên tố thành 2 loại cơ bản nào?</t>
   </si>
   <si>
-    <t>Lỗ Tấn</t>
+    <t>Đa lượng và vi lượng</t>
   </si>
   <si>
-    <t>“Cách vật, trí tri, thành ý, chính tâm, tu…., tề…, trị…., bình thiên hạ’. (Cương lĩnh nho giáo). Điền tiếp vào chỗ …</t>
+    <t>Có bao nhiêu số có 2 chữ số mà khi hoán vị hai chữ số đó thì ta được số mới hơn số cũ 9 đơn vị?</t>
   </si>
   <si>
-    <t>tu thân, tề gia, trị quốc</t>
+    <t>8 (Các số lần lượt là 12, 23, 34, 45, 56, 67, 78, 89)</t>
   </si>
   <si>
-    <t>Nguyên tố nào có khả năng tạo được nhiều hợp chất nhất?</t>
+    <t>Một số chất khi bị tia này đập vào sẽ phát ra ánh sáng như: thủy tinh phát màu xanh lục, vôi phát ra màu da cam. Tia này là tia gì?</t>
   </si>
   <si>
-    <t>Carbon</t>
+    <t>Chùm tia electron / Chùm tia cathode</t>
   </si>
   <si>
-    <t>Dạng năng lượng nào có các đặc điểm: không dùng trực tiếp, không dự trữ trực tiếp, không gây ô nhiễm môi trường khi sử dụng, thuận tiện trong việc truyền tải đi xa?</t>
+    <t>Ancol bậc II bị oxi hoá nhẹ bằng CuO tạo thành chất gì?</t>
   </si>
   <si>
-    <t>Điện năng</t>
+    <t>Ketone</t>
   </si>
   <si>
-    <t>"Ruộng lúa ngàn dặm đỏ như cháy/ Đồng quê than vãn trông vào đâu" là những câu thơ Nguyễn Phi Khanh miêu tả tình cảnh nhân dân vào cuối triều đại nào?</t>
+    <t>Các tác giả Hoài Thanh - Hoài Chân đã trân trọng dành những dòng đầu tiên của cuốn Thi nhân Việt Nam để gửi lời "cung chiêu anh hồn" thi sĩ nào?</t>
   </si>
   <si>
-    <t>Trần</t>
+    <t>Tản Đà</t>
   </si>
   <si>
-    <t>Phải xếp bao nhiêu hình lập phương nhỏ 1 centimet khối để được một hình lập phương có diện tích toàn phần là 150 centimet vuông?</t>
+    <t>Năm 1941, khi về nước, Chủ tịch Hồ Chí Minh đã sống và làm việc tại hang Pác Bó (Cao Bằng). Người đã đặt tên cho dòng suối trước cửa hang là gì?</t>
   </si>
   <si>
-    <t>125</t>
+    <t>Suối Lenin</t>
   </si>
   <si>
-    <t>Có 12 quả gồm có: 6 quả táo, 4 quả ổi và 2 quả lê. Có bao nhiêu cách chọn ra 6 quả mà trong đó số quả táo bằng số quả ổi?</t>
+    <t>Tủy sống của con người có 2 chỗ phình to ra. Đó là những chỗ nào?</t>
   </si>
   <si>
-    <t>170</t>
+    <t>Cổ và thắt lưng</t>
   </si>
   <si>
-    <t>HDI là tên viết tắt của chỉ số nào?</t>
+    <t>Tháng 2/1946, thay mặt Chính phủ và đồng bào cả nước, Chủ tịch Hồ Chí Minh đã tặng cho Nam Bộ danh hiệu vẻ vang ...</t>
   </si>
   <si>
-    <t>Chỉ số phát triển con người</t>
+    <t>Thành đồng Tổ quốc</t>
   </si>
   <si>
-    <t>Ba nhân tố môi trường để hạt nảy mầm là gì?</t>
+    <t>Axit atcobic chính là vitamin nào?</t>
   </si>
   <si>
-    <t>Nước, O2, nhiệt độ</t>
+    <t>Vitamin C</t>
   </si>
   <si>
-    <t>"Lúc nào cũng vậy, dù quay sợi, thái cỏ ngựa, dệt vải, chẻ củi, hay đi cõng nước dưới khe suối lên, cô ấy cũng cúi mặt, mặt buồn rười rượi". "Cô ấy" là nhân vật ở truyện nào, có tên gì?</t>
+    <t>Từ A đến B có 7 con đường, từ B đến C có 8 con đường, từ C đến D có 9 con đường. Hỏi có bao nhiêu cách chọn đường đi từ A đến D lần lượt qua B và C?</t>
   </si>
   <si>
-    <t>Mị trong Vợ chồng A Phủ</t>
+    <t>504 (Áp dụng quy tắc nhân, ta có 7 × 8 × 9 = 504 cách.)</t>
   </si>
   <si>
-    <t>Mỗi bán cầu đều có bốn khối khí chính là cực, ôn đới và hai loại khối khí nào nữa?</t>
+    <t>Luồng hạt nhân và hạt cơ bản, từ không gian vũ trụ rơi vào Trái Đất, gây ra nhiều phản ứng hạt nhân trong khí quyển gọi là ...</t>
   </si>
   <si>
-    <t>Chí tuyến và xích đạo</t>
+    <t>tia vũ trụ</t>
   </si>
   <si>
-    <t>"Cốt để mưu nghiệp lớn, chọn ở chỗ giữa, làm kế cho con cháu muôn vạn đời, trên kính mệnh trời, dưới theo ý dân, nếu có chỗ tiện thì dời đổi, cho nên vận nước lâu dài, phong tục giàu thịnh". Đây là câu trích trong "Đại Việt sử kí toàn thư" về ý nghĩa của công việc quan trọng nào với mỗi triều đại phong kiến?[1]</t>
+    <t>Tố Hữu viết : " Sống làm quả bom nổ, chết theo dòng nước xanh". Nhân vật được ca ngợi trong câu thơ trên là ai?[1]</t>
   </si>
   <si>
-    <t>Lựa chọn kinh đô / Dời đô / Định đô</t>
+    <t>Phạm Hồng Thái</t>
   </si>
   <si>
-    <t>Bán đảo Cà Mau nằm trên địa giới sáu tỉnh/thành là Sóc Trăng, Bạc Liêu, Hậu Giang, Cần Thơ và hai tỉnh nào nữa?</t>
+    <t>1 cuộc bỏ phiếu trực tiếp mà các cử tri được yêu cầu chấp nhận hay phủ quyết 1 đề xuất đặc biệt để thông qua (sửa đổi) 1 hiến pháp, bộ luật được gọi là gì?</t>
   </si>
   <si>
-    <t>Kiên Giang, Cà Mau</t>
+    <t>Trưng cầu dân ý</t>
   </si>
   <si>
-    <t>Bằng kiến thức vật lí, bạn hãy giải thích câu "Thùng rỗng kêu to".</t>
+    <t>"Năm 1888, ông từ trần. Cánh đồng Ba Tri rợp trắng khăn tang khóc thương ông. Cuộc đời ông là một tấm gương sáng ngời về nghị lực và đạo đức". Ông là ai?</t>
   </si>
   <si>
-    <t>Không khí trong thùng rỗng dao động mạnh hơn, nên khi gõ vào thì âm thanh sẽ nghe được to hơn</t>
+    <t>Nguyễn Đình Chiểu</t>
   </si>
   <si>
-    <t>Tại sao trước khi tiến hành một số xét nghiệm liên quan đến máu, người được xét nghiệm không nên ăn sáng?</t>
+    <t>Quốc gia nào tham gia muộn nhất vào nhóm 8 quốc gia công nghiệp phát triển hàng đầu của thế giới (G8)?</t>
   </si>
   <si>
-    <t>Vì nếu làm vậy, hàm lượng glucose trong máu sẽ tăng lên, làm sai lệch kết quả</t>
+    <t>Nga</t>
   </si>
   <si>
-    <t>VD3.mp4</t>
+    <t>Từ năm 2009, Thủ tướng Chính phủ đã quyết định lấy ngày 19/4 hàng năm là "Ngày ... Việt Nam".</t>
   </si>
   <si>
-    <t>Phải xếp bao nhiêu hình lập phương nhỏ 1cm3 để được một hình lập phương có diện tích toàn phần là 150cm2?</t>
+    <t>Văn hóa các dân tộc</t>
   </si>
   <si>
-    <t>125 (Diện tích toàn phần bằng 150cm2, suy ra  ra diện tích của một mặt, đó là bình phương của độ dài cạnh, khi có độ dài cạnh thì sẽ suy ra thể tích và số hình lập phương nhỏ.)</t>
+    <t>Đầu năm 1935, đồng chí nào đã dẫn đầu đoàn đại biểu của Đảng đi Mát-xcơ-va dự Đại hội lần thứ VII Quốc tế cộng sản?</t>
   </si>
   <si>
-    <t>Có tất cả 17 quả cau được chia ra làm hai phần. Mỗi quả trong phần thứ nhất được bổ ra làm 3 miếng. Mỗi quả trong phần thứ hai được bổ ra làm 10 miếng. Có tất cả 100 người, mỗi người chỉ ăn một miếng . Hỏi có mấy người ăn được cau bổ 3, mấy người ăn được cau bổ 10?[1]</t>
+    <t>Lê Hồng Phong</t>
   </si>
   <si>
-    <t>Cau bổ 3: 30 người, cau bổ 10: 70 người (Gọi số quả cau bổ 3 bằng x, suy ra số quả cau bổ 10 bằng 17 - x, ta có phương trình 3x + 7 * 17 - x = 100, suy ra x = 10, từ đố số người ăn cau bổ 3 là 10 × 3 = 30 người và số người ăn cau bổ 10 là 10 × 7 = 70 người.)</t>
+    <t>"Nhà nước ba năm mở một khoa/ Trường Nam thi lẫn với Trường Hà". Khoa thi được Trần Tế Xương nhắc tới là khoa thi nào và được tổ chức ở đâu?</t>
   </si>
   <si>
-    <t>VD1.mp4</t>
+    <t>Thi Hương, ở Nam Định</t>
   </si>
   <si>
-    <t>Phương châm 4 tại chỗ trong phòng chống lũ gồm chỉ huy tại chỗ, lực lượng tại chỗ; phương tiện và vật tư tại chỗ và còn gì nữa?</t>
+    <t>Dân gian ta có câu: "Trên trời có ông sao Tua/ Ở làng Minh Giám có vua ...". Trong dấu ... là nhân vật nào?</t>
   </si>
   <si>
-    <t>hậu cần tại chỗ</t>
+    <t>Bá Vành</t>
   </si>
   <si>
-    <t>Sự chuyển hoá vật chất và năng lượng của cơ thể phụ thuộc vào sự điều khiển của những hệ cơ quan nào?</t>
+    <t>Những nước Cộng hòa tách ra từ Liên bang Xô viết đã thành lập cộng đồng chung với tên gọi là gì?</t>
   </si>
   <si>
-    <t>Hệ thần kinh và nội tiết</t>
+    <t>Cộng đồng các Quốc gia Độc lập (SNG)</t>
   </si>
   <si>
-    <t>Tại đây, vào tháng 7/1930, đã có Hội nghị của Thường vụ Trung ương lâm thời Đảng Cộng sản Việt Nam gồm các đồng chí Trịnh Đình Cửu - Bí thư Trung ương lâm thời, và các ủy viên: Nguyễn Phong Sắc, Nguyễn Đức Cảnh, Trần Văn Lan và đồng chí Trần Phú. Trong Hội nghị, đồng chí Trần Phú được phân công viết bản Dự thảo Luận cương chính trị. Các nhân chứng kể lại: trong thời gian viết dự thảo Luận cương chính trị, đồng chí Trần Phú thường ngồi bệt xuống nền nhà, lấy phản nằm làm bàn viết. Ngoài ra, tại đây còn có nhiều cuộc họp để thảo luận những vấn đề chuẩn bị cho Hội nghị Trung ương lần thứ I tháng 10/1930 tại Hương Cảng (Trung Quốc). Địa điểm tổ chức hội nghị và là nơi Tổng bí thư Trần Phú soạn thảo Luận cương chính trị đầu tiên của Đảng được nhắc tới ở đây là nơi nào?</t>
+    <t>Trong hàng ngũ của nghĩa quân Tây Sơn có 5 nữ tướng (Tây Sơn ngũ phụng thư): Nguyễn Thị Dung, Huỳnh Thị Cúc, Trần Thị Lan và 2 người nào nữa ?</t>
   </si>
   <si>
-    <t>Số 90 phố Thợ Nhuộm</t>
+    <t>Bùi Thị Xuân và Bùi Thị Nhạn</t>
   </si>
   <si>
-    <t>Hãy nêu cấu tạo bên trong của Trái Đất theo thứ tự các lớp từ trong ra ngoài.</t>
+    <t>Trong các tỉnh sau: An Giang, Hưng Yên, Sóc Trăng, Nam Định, Trà Vinh, những tỉnh nào không giáp biển?</t>
   </si>
   <si>
-    <t>Nhân, lớp manti, vỏ Trái Đất</t>
+    <t>An Giang, Hưng Yên</t>
   </si>
   <si>
-    <t>VD4.mp4</t>
+    <t>"Hồ Chí Minh - chân dung một con người", "Nước về Bắc Hưng Hải", "Nguyễn Văn Trỗi" là những bộ phim xuất sắc của đạo diễn - nghệ sĩ nhân dân nào?</t>
   </si>
   <si>
-    <t>Lúc đầu số dầu trong thùng thứ nhất bằng 1/3 thùng đó, số dầu trong thùng thứ hai bằng 1/4 thùng đó. Người ta đổ thêm cho đầy dầu ở mỗi thùng chỉ cần phải đổ thêm tất cả 20 lít. Biết số dầu lúc đầu ở mỗi thùng là bằng nhau, hỏi thùng thứ nhất và thùng thứ hai lần lượt chứa đầy được bao nhiêu lít dầu?</t>
+    <t>Bùi Đình Hạc</t>
   </si>
   <si>
-    <t>12, 16 (Gọi số dầu 2 thùng chứa được tối đa lần lượt là x và y, ta có số dầu 2 thùng ban đầu bằng nhau, suy ra 1/3x = 1/4y. Đổ 20 lít vào mỗi thùng vào thì làm đầy bình, suy ra 2/3x+20 = 3/4x+20. Vậy x = 12 và y = 16.)</t>
+    <t>Dựa vào độ cao của đám khói, thể tích của vụn đá bắn ra và sự mãnh liệt của vụ nổ, người ta xếp hạng chỉ số sức nổ của núi lửa theo các mức nào?</t>
   </si>
   <si>
-    <t>Hãng từ điển Mỹ Merriam-Webster đã bình chọn từ nào là từ của năm 2022?</t>
+    <t>0 đến 8</t>
   </si>
   <si>
-    <t>Gaslighting</t>
+    <t>Trào lưu văn học nào xuất hiện ở Việt Nam sau CMT8/1945, phát triển vượt bậc và chiếm ưu thế tuyệt đối trong số lượng sáng tác thời bấy giờ?</t>
   </si>
   <si>
-    <t>Năm 1283, trước khi chống quân Nguyên Mông lần thứ 2, vua Trần Nhân Tông đã triệu tập bô lão, quần thần tại một hội nghị để bàn kế sách chống giặc. Cũng chính tại hội nghị này, vì còn trẻ tuổi nên Trần Quốc Toản không được tham dự mà đứng bóp nát quả cam trong tay. Bạn hãy cho biết tên của hội nghị này?</t>
+    <t>Hiện thực chủ nghĩa xã hội</t>
   </si>
   <si>
-    <t>Hội nghị Bình Than</t>
+    <t>Bộ ba ... được gọi là "Tuế hàn tam hữu" hay "Đông thiên tam hữu", ba người bạn trong tiết trời giá lạnh của ngày đông. Trong ... là gì?</t>
   </si>
   <si>
-    <t>Sự kết cặp không đúng trong nhân đôi ADN làm phát sinh dạng đột biến gen nào?</t>
+    <t>Tùng, Trúc, Mai</t>
   </si>
   <si>
-    <t>Thay thế một cặp nucleotide</t>
+    <t>Năm 1284, Quốc công Tiết chế Trần Hưng Đạo đã ví sánh 2 thuộc tướng nào của mình với những trụ lông cánh của loài chim Hồng Hộc?</t>
   </si>
   <si>
-    <t>Phan Bội Châu thành lập tổ chức Việt Nam Quang Phục hội với tôn chỉ là gì?</t>
+    <t>Yết Kiêu và Dã Tượng</t>
   </si>
   <si>
-    <t>"Khôi phục Việt Nam, kiến lập Việt Nam Dân Quốc"?</t>
+    <t>Nhà thơ Quang Huy nhắc đến công trình nào trong những dòng thơ sau: "Chiếc đập lớn, nối liền hai khối núi/ Biển sẽ nằm bỡ ngỡ giữa cao nguyên"?</t>
   </si>
   <si>
-    <t>VD2.mp4</t>
+    <t>Nhà máy thủy điện Hòa Bình</t>
   </si>
   <si>
-    <t>Có hai số ban đầu lần lượt là 567 và 433. Nếu số đầu bớt đi một phần và cộng phần đó vào số còn lại thì ta sẽ có tỉ số giữa hai số mới là 1/9. Hãy cho biết phần được bớt đi là bao nhiêu?</t>
+    <t>Số lẻ nhỏ nhất có bốn chữ số khác nhau là ...</t>
   </si>
   <si>
-    <t>467</t>
+    <t>1023</t>
   </si>
   <si>
-    <t>Hoàn thành câu sau: "Cái … không xương nhiều đường lắt léo"</t>
+    <t>Vị nữ hoàng đế duy nhất trong lịch sử Việt Nam đã sống ở thế kỷ nào?</t>
   </si>
   <si>
-    <t>lưỡi</t>
-  </si>
-  <si>
-    <t>Nguyên tố nào tạo ra nhiều hợp chất nhất?</t>
-  </si>
-  <si>
-    <t>Cacbon</t>
-  </si>
-  <si>
-    <t>Bắc Cực là nơi bắt đầu của tất cả các vĩ tuyến trên Trái Đất. Đúng hay sai?</t>
+    <t>13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="15">
+  <fonts count="11">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -605,12 +651,6 @@
     </font>
     <font/>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF3A3A3A"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="14.0"/>
       <color theme="1"/>
@@ -618,13 +658,14 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FFE4E6EB"/>
-      <name val="&quot;Segoe UI Historic&quot;"/>
+      <color rgb="FF202122"/>
+      <name val="Sans-serif"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Quattrocento Sans"/>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF202122"/>
+      <name val="Sans-serif"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -638,22 +679,9 @@
       <name val="Quattrocento Sans"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -689,14 +717,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3E4042"/>
-        <bgColor rgb="FF3E4042"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFE7CE"/>
+        <bgColor rgb="FFFFE7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -762,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -777,9 +805,6 @@
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
@@ -787,46 +812,46 @@
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="1" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -835,17 +860,14 @@
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -857,8 +879,8 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,38 +891,17 @@
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf quotePrefix="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf quotePrefix="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -917,21 +918,8 @@
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1165,7 +1153,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="10.1" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="92.4"/>
+    <col customWidth="1" min="1" max="1" width="73.7"/>
     <col customWidth="1" min="2" max="2" width="25.8"/>
     <col customWidth="1" min="3" max="3" width="15.6"/>
     <col customWidth="1" min="4" max="4" width="17.5"/>
@@ -1264,7 +1252,7 @@
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5">
@@ -1279,7 +1267,7 @@
       <c r="H3" s="6">
         <v>2.0</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1317,7 +1305,7 @@
       <c r="H4" s="6">
         <v>3.0</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1355,7 +1343,7 @@
       <c r="H5" s="6">
         <v>4.0</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1393,7 +1381,7 @@
       <c r="H6" s="6">
         <v>5.0</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1431,7 +1419,7 @@
       <c r="H7" s="6">
         <v>6.0</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1469,7 +1457,7 @@
       <c r="H8" s="6">
         <v>7.0</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1507,7 +1495,7 @@
       <c r="H9" s="6">
         <v>8.0</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1533,19 +1521,19 @@
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="5">
         <v>10.0</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
         <v>2.0</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>1.0</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="3"/>
@@ -1573,19 +1561,19 @@
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="5">
         <v>10.0</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
         <v>2.0</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>2.0</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1611,19 +1599,19 @@
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="5">
         <v>10.0</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
         <v>2.0</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>3.0</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1649,19 +1637,19 @@
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="5">
         <v>10.0</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10">
         <v>2.0</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>4.0</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1687,19 +1675,19 @@
       <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="5">
         <v>10.0</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10">
         <v>2.0</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>5.0</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1719,25 +1707,25 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="5">
         <v>10.0</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
         <v>2.0</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>6.0</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1763,19 +1751,19 @@
       <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="5">
         <v>10.0</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10">
         <v>2.0</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>7.0</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1801,19 +1789,19 @@
       <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="5">
         <v>10.0</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10">
         <v>2.0</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>8.0</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1839,19 +1827,19 @@
       <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="5">
         <v>10.0</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10">
         <v>2.0</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>9.0</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1877,19 +1865,19 @@
       <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="5">
         <v>10.0</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10">
         <v>2.0</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>10.0</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1915,19 +1903,19 @@
       <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="5">
         <v>10.0</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10">
         <v>2.0</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>11.0</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1953,19 +1941,19 @@
       <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="5">
         <v>10.0</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10">
         <v>2.0</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>12.0</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1991,19 +1979,19 @@
       <c r="B22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="5">
         <v>10.0</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13">
         <v>3.0</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="14">
         <v>1.0</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="15" t="s">
         <v>52</v>
       </c>
       <c r="J22" s="3"/>
@@ -2031,19 +2019,19 @@
       <c r="B23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="5">
         <v>10.0</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13">
         <v>3.0</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="14">
         <v>2.0</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -2066,22 +2054,22 @@
       <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="5">
         <v>10.0</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13">
         <v>3.0</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="14">
         <v>3.0</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -2107,19 +2095,19 @@
       <c r="B25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="5">
         <v>10.0</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13">
         <v>3.0</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="14">
         <v>4.0</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2145,19 +2133,19 @@
       <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="5">
         <v>10.0</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13">
         <v>3.0</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="14">
         <v>5.0</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -2183,19 +2171,19 @@
       <c r="B27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="5">
         <v>10.0</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13">
         <v>3.0</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="14">
         <v>6.0</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2221,19 +2209,19 @@
       <c r="B28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="5">
         <v>10.0</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13">
         <v>3.0</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="14">
         <v>7.0</v>
       </c>
-      <c r="I28" s="9"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2253,25 +2241,25 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" ht="17.25" customHeight="1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="5">
         <v>10.0</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13">
         <v>3.0</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="14">
         <v>8.0</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2297,19 +2285,19 @@
       <c r="B30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="5">
         <v>10.0</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13">
         <v>3.0</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="14">
         <v>9.0</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2335,19 +2323,19 @@
       <c r="B31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="5">
         <v>10.0</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15">
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13">
         <v>3.0</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="14">
         <v>10.0</v>
       </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2373,19 +2361,19 @@
       <c r="B32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="5">
         <v>10.0</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13">
         <v>3.0</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="14">
         <v>11.0</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2411,19 +2399,19 @@
       <c r="B33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="5">
         <v>10.0</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13">
         <v>3.0</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="14">
         <v>12.0</v>
       </c>
-      <c r="I33" s="9"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2446,22 +2434,22 @@
       <c r="A34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="5">
         <v>10.0</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13">
         <v>3.0</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="14">
         <v>13.0</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2484,22 +2472,22 @@
       <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="5">
         <v>10.0</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13">
         <v>3.0</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="14">
         <v>14.0</v>
       </c>
-      <c r="I35" s="9"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2522,22 +2510,22 @@
       <c r="A36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="5">
         <v>10.0</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13">
         <v>3.0</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="14">
         <v>15.0</v>
       </c>
-      <c r="I36" s="9"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -2563,19 +2551,19 @@
       <c r="B37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="5">
         <v>10.0</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13">
         <v>3.0</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="14">
         <v>16.0</v>
       </c>
-      <c r="I37" s="10"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -29544,13 +29532,10 @@
     <mergeCell ref="A41:I41"/>
     <mergeCell ref="A42:I42"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId1" location="cite_note-1" ref="A15"/>
-  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29598,7 +29583,7 @@
       <c r="A2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="5">
@@ -29610,10 +29595,10 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" ht="34.5" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C3" s="5">
@@ -29625,10 +29610,10 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" ht="42.0" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="5">
@@ -29640,10 +29625,10 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" ht="30.75" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="5">
@@ -29655,10 +29640,10 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" ht="24.0" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="5">
@@ -29670,18 +29655,18 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -30664,10 +30649,13 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A4"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -30707,42 +30695,42 @@
       </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="5">
         <v>40.0</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>102</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" ht="31.5" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="5">
         <v>40.0</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>105</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="5">
@@ -30750,15 +30738,15 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="26" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="26" t="s">
         <v>110</v>
       </c>
       <c r="C5" s="5">
@@ -30766,25 +30754,25 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="26" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -31784,489 +31772,487 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="10.1" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="91.0"/>
-    <col customWidth="1" min="2" max="2" width="60.7"/>
+    <col customWidth="1" min="1" max="1" width="74.0"/>
+    <col customWidth="1" min="2" max="2" width="21.5"/>
     <col customWidth="1" min="3" max="26" width="10.9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="39">
         <v>20.0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="39">
         <v>20.0</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="39">
         <v>20.0</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-    </row>
-    <row r="5" ht="40.5" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+    </row>
+    <row r="5" ht="24.0" customHeight="1">
+      <c r="A5" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="39">
         <v>20.0</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="39">
         <v>20.0</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="39">
         <v>20.0</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <v>20.0</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <v>20.0</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <v>20.0</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="39">
         <v>20.0</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="39">
         <v>20.0</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="39">
         <v>20.0</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="39">
         <v>20.0</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="39">
         <v>20.0</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="39">
         <v>20.0</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="17">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="43">
         <v>20.0</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="46">
         <v>30.0</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="46">
         <v>30.0</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="46">
         <v>30.0</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="46">
         <v>30.0</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="45" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="46">
+        <v>30.0</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+    </row>
+    <row r="23" ht="22.5" customHeight="1">
+      <c r="A23" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="55">
+      <c r="B23" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="46">
         <v>30.0</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-    </row>
-    <row r="23" ht="117.0" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="55">
+      <c r="B24" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="46">
         <v>30.0</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="60" t="s">
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B25" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C25" s="46">
         <v>30.0</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="60" t="s">
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B26" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C26" s="46">
         <v>30.0</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="60" t="s">
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B27" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C27" s="46">
         <v>30.0</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C28" s="46">
         <v>30.0</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59" t="s">
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+    </row>
+    <row r="29" ht="19.5" customHeight="1">
+      <c r="A29" s="45" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="40" t="s">
+      <c r="B29" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="C29" s="46">
+        <v>30.0</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="55">
+      <c r="B30" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="46">
         <v>30.0</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="61" t="s">
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="55">
+      <c r="B31" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="46">
         <v>30.0</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="62" t="s">
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="55">
+      <c r="B32" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="46">
         <v>30.0</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" s="60" t="s">
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="55">
+      <c r="B33" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="46">
         <v>30.0</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="55">
-        <v>30.0</v>
-      </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="59" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" s="55">
-        <v>30.0</v>
-      </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+    </row>
     <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
@@ -33234,9 +33220,9 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A10"/>
-    <hyperlink r:id="rId2" location="cite_note-1" ref="A18"/>
-    <hyperlink r:id="rId3" location="cite_note-1" ref="A23"/>
+    <hyperlink r:id="rId1" location="cite_note-1" ref="A18"/>
+    <hyperlink r:id="rId2" ref="A21"/>
+    <hyperlink r:id="rId3" ref="A24"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -33267,30 +33253,54 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="16" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
